--- a/pred_ohlcv/54_21/2019-10-26 MCO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 MCO ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>4654.769400000002</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>4682.678200000002</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>4681.178200000002</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -730,7 +730,7 @@
         <v>6897.158769290003</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>6897.158769290003</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -808,7 +808,7 @@
         <v>8552.628769290004</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>10221.22726929</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>10258.02726929</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>10004.30606929</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>9698.306069290004</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>9729.476069290004</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>9673.149769290003</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>9673.149769290003</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>9815.149769290003</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>9833.074169290003</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>10405.20116929</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>10456.19126929</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>12073.51996929</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>12292.77976929</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>12391.77976929</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>12398.50786929</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>12521.80126929</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>12750.95066929</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>13889.77176929</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>13909.72356929</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>13938.62056929</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>14071.74616929</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>14077.20146555</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>14067.26146555</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>14185.00628243</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>14218.81098243</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>14279.56346555</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>14279.56346555</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>14152.40006555</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>14059.40006555</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>13994.76036555</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>14011.02746555</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>14141.36416555</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>14134.21416555</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>14134.31416555</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>14134.31416555</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>14065.42916555</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>14016.32916555</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>14016.42916555</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>13992.42916555</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>14093.01656555</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>14068.01916555</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>14067.91916555</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>14064.78456555</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>14140.76226555</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>14220.76226555</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>14261.26091052</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>14135.55861052</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>14137.77941052</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>14037.77941052</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>13782.97141052</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>14072.57249842</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>14062.77249842</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>14069.02249842</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-26 MCO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 MCO ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>4654.769400000002</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>4682.678200000002</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>4681.178200000002</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -730,7 +730,7 @@
         <v>6897.158769290003</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>6897.158769290003</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -808,7 +808,7 @@
         <v>8552.628769290004</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>10221.22726929</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>10258.02726929</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>10004.30606929</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>9698.306069290004</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>9729.476069290004</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>9673.149769290003</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>9673.149769290003</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>9815.149769290003</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>9833.074169290003</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>10405.20116929</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>10456.19126929</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>12073.51996929</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>12292.77976929</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>12391.77976929</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>12398.50786929</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>12521.80126929</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>12750.95066929</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>13889.77176929</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>14205.53316929</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>13909.72356929</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>14068.75366929</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>14077.20146555</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>14067.26146555</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>14185.00628243</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>14218.81098243</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>14279.56346555</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>14279.56346555</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>14152.40006555</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>14059.40006555</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>14141.36416555</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>14134.21416555</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>14134.31416555</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>14134.31416555</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>14065.42916555</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>14016.32916555</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>14016.42916555</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
